--- a/assets/themes/Snail/img/Network/TCPConnectionTermination/termination_table.xlsx
+++ b/assets/themes/Snail/img/Network/TCPConnectionTermination/termination_table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>서버는 전송했던 FIN에 대한 ACK를 기다린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트는 전송한 ACK를 서버측에서 수신하는 것을
-보장하기 위해 일정 시간을 기다린다. 
-Maximun-Segment-Lif(MSL)의 2배가량의 시간을 기다려준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,6 +330,219 @@
       </rPr>
       <t>서버는 FIN에 대한 ACK를 수신하고 연결을 종료한다</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME-WAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Close Step#1 Transmit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+TCP 연결이 더 이상 필요 없어진 어플리케이션은 연결을
+종료 시키기 위해 FIN 비트를 설정하여 세그먼트를 전송
+한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Server Close Step#1 Transmit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+클라이언트에서 전송한 FIN을 수신하기 전에 서버에 있는 어플리케이션이 연결을 종료시키기 위해 FIN을 클라이언트로 전송한다 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Close Step #1 and Step #2 Transmit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서버는 FIN을 보내고 ACK를 기다린다. 그런데 클라이언트에서도 FIN을 전송했기 때문에 ACK가 아닌 FIN을 수신한다. 클라이언트가 보낸 FIN에 대한 ACK를 전송하고 자신(서버)이 보낸 FIN에 대한 ACK를 기다린다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Close Step#1 Receive and Step#2 Transmit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FIN을 전송한 클라이언트는 FIN에 대한 ACK를 기다린다
+그런데 서버에서도 FIN을 전송했기 때문에 ACK대신 FIN을 수신했다. 서버가 보낸 FIN에 대한 ACK를 전송하고 자신(클라이언트)이 보낸 FIN에 대한 ACK를 기다린다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Close Step #2 Receive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACK를 수신한다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Server Close Step #2 Receive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ACK를 수신한다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트는 전송한 ACK를 서버측에서 수신하는 것을
+보장하기 위해 일정 시간을 기다린다. 
+Maximun-Segment-Lif(MSL)의 2배가량의 시간을 기다려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버는 전송한 ACK를 서버측에서 수신하는 것을
+보장하기 위해 일정 시간을 기다린다. 
+Maximun-Segment-Lif(MSL)의 2배가량의 시간을 기다려준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +606,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -479,18 +693,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,6 +710,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,6 +762,66 @@
         <a:xfrm>
           <a:off x="7315200" y="1428750"/>
           <a:ext cx="285750" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 53333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="아래쪽 화살표 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="7802217"/>
+          <a:ext cx="288649" cy="2078935"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -873,211 +1150,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:I13"/>
+  <dimension ref="D4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="38.25" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="60" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="4:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
